--- a/biology/Zoologie/Diploglena_capensis/Diploglena_capensis.xlsx
+++ b/biology/Zoologie/Diploglena_capensis/Diploglena_capensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diploglena capensis est une espèce d'araignées aranéomorphes de la famille des Caponiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diploglena capensis est une espèce d'araignées aranéomorphes de la famille des Caponiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Cap-Occidental en Afrique du Sud[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Cap-Occidental en Afrique du Sud,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diploglena capensis compte deux yeux[2].
-Les mâles mesurent de 4,18 à 6,30 mm et les femelles de 4,55 à 6,50 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diploglena capensis compte deux yeux.
+Les mâles mesurent de 4,18 à 6,30 mm et les femelles de 4,55 à 6,50 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Diploglena capensis major[3] a été élevée au rang d'espèce par Haddad en 2015[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Diploglena capensis major a été élevée au rang d'espèce par Haddad en 2015.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de cap et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, la péninsule du Cap.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Purcell, 1904 : Descriptions of new genera and species of South African spiders. Transactions of the South African Philosophical Society, vol. 15, p. 115-173 (texte intégral).</t>
         </is>
